--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value618.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value618.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.312327667458424</v>
+        <v>1.267632722854614</v>
       </c>
       <c r="B1">
-        <v>2.681907741379451</v>
+        <v>2.922163486480713</v>
       </c>
       <c r="C1">
-        <v>4.447819467632093</v>
+        <v>5.519822597503662</v>
       </c>
       <c r="D1">
-        <v>2.226415517429308</v>
+        <v>1.868225336074829</v>
       </c>
       <c r="E1">
-        <v>0.9929700098542112</v>
+        <v>1.030337691307068</v>
       </c>
     </row>
   </sheetData>
